--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2609.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2609.xlsx
@@ -354,7 +354,7 @@
         <v>1.570628467208227</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.803560441727413</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2609.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2609.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7931735442528762</v>
+        <v>1.332878589630127</v>
       </c>
       <c r="B1">
-        <v>1.570628467208227</v>
+        <v>2.132723569869995</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.827506542205811</v>
       </c>
       <c r="D1">
-        <v>1.803560441727413</v>
+        <v>3.432815313339233</v>
       </c>
       <c r="E1">
-        <v>0.919927446521189</v>
+        <v>1.309719562530518</v>
       </c>
     </row>
   </sheetData>
